--- a/data-raw/metadata-raw.xlsx
+++ b/data-raw/metadata-raw.xlsx
@@ -390,6 +390,11 @@
           <t>numeric</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -402,6 +407,11 @@
           <t>character</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -414,9 +424,9 @@
           <t>numeric</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017, 2018, 2019, 2020, 2021</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TO DO</t>
         </is>
       </c>
     </row>
@@ -431,6 +441,11 @@
           <t>character</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -448,6 +463,11 @@
           <t>class, family, genus, multi, order, phylum, species, specimens, subfamily, subspecies, undefined</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -465,6 +485,11 @@
           <t>class, family, genus, infraorder, kingdom, multi, order, phylum, species, subclass, subfamily, suborder, subphylum, superfamily, superorder, superphylum, undefined</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -477,9 +502,9 @@
           <t>character</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Actinopterygii, Aculeata, Amblema plicata, Amphibia, Amphipoda, Anelosimus, Animalia, Annelida, Anthophila, Anthozoa, Anura, Apinae, Apis, Arachnida, Araneae, Arthropoda, Ascidiacea, Asteroidea, Aves, Bivalvia, Bos taurus, Braconidae, Bryozoa, Campostoma anomalum, Canidae, Carabidae, Carabus, Carcinus maenas, Carnivora, Cassidinae, Cephalotes, Chironomidae, Chiroptera, Chondrichthyes, Chordata, Cichlidae, Cichlinae, Cladocera, Clitellata, Coccinellidae, Coleoptera, Collembola, Copepoda, Copepode, Coregonus lavaretus macrophthalmus, Crustacea, Ctenophora, Cuculus canorus, Decapoda, Diaphus, Diplopoda, Diptera, Drosophilidae, Echinoidea, Ephemeroptera, Formicidae, Fringilla teydea, Gallotia, Gastropoda, Haemulidae, Heteroptera, Hirudinea, Hydrozoa, Hymenoptera, Insecta, Invertebrata, Isopoda, Isoptera, Lemuroidea, Lepidoptera, Lumbricidae, Lumbricina, Macrobenthos, Macroinvertebrates, Mammalia, Mollusca, Nematoda, Odonata, Oligochaeta, Ophidia, Opilliones, Opisthopora, Orconectes virilis, Oribatida, Orthoptera, Ostreidae, Parus major, Perissodactyla, Pisces, Plathemis lydia, Pocillopora, Polychaeta, Pomacentridae, Porifera, Rhithropanopeus harrisii, Rhopalocera, Rodentia, Rotifera, Saturniidae, Scarabaeidae, Scarabaeinae, Scarabaeoidea, Scaridae, Scleractinia, Scutiger boulengeri, Sebastes, Serpentes, Sphingidae, Squamata, Staphylinidae, Syrphidae, Taricha, Testudines, Thalassarche melanophris, Thamnophis, Timaliidae, Trichoptera, Trochilidae, Tunicata, Ungulata, Vertebrata, Xiphophorus, Zooplankton</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO DO</t>
         </is>
       </c>
     </row>
@@ -499,6 +524,11 @@
           <t>Amphibia, Animalia, Annelida, Arthropoda, Aves, Bryozoa, Chordata, Cnidaria, Ctenophora, Echinodermata, Mammalia, Mollusca, Nematoda, Pisces, Porifera, Protostomia, Rotifera, Squamata, Testudinata, Urochordata, Vertebrata</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +546,11 @@
           <t>Animalia, Chordata, Cnidaria, Ctenophora, Ecdysozoa, Echinodermata, Porifera, Protostomia, Spiralia</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -528,9 +563,9 @@
           <t>character</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Africa, Americas, Andes, Antarctica, Arabian sea, Arabian Sea, Argentina, Ascension Island, Asia, Atlantic Ocean, Atlantic Ocean;Mediterranean Sea, Australia, Australia;Tasmania, Austria, Azores, Azov and Black Sea coastal areas, Bahamas, Baltic Sea, Barents Sea, Barrow Canion, Belgium, Belgium; Germany; Luxemburg; Sweden; Switzerland; Slovakia; Ukraine, Belize, Berlin, Bogota, Bolivia, Bolivia;Cameroon;Guyana;Madagascar;Tanzania, Borneo, Brazil, Brazil;Tanzania;Kenia, Bulgaria, California, Cambodia, Cameroon, Canada, Canadian Arctic, Canary Islands, Canary Islands;Portugal, Caribbean, Caribbean Sea, Caribbean;Eastern Pacific;Indo-Pacific, Celtic Sea, Central-western Pacific Ocean, Chagos Archipelago, Chile, China, Colombia, Costa Rica, Cretan Sea, Croatia, Cuba, Curaçao, Czech Republic, Democratic of São Tomé and Príncipe, Denmark, Dominica, East Africa, Eastern English Channel, Eastern South Pacific, Eastern Tropical Pacific, Ecuador, Ecuador;Tanzania, Egypt, England, England; South Korea, English Channel, Estonia, Eswatini;South Africa, Ethiopia, EUA, Europe, Fiji, Finland, Finland;Norway, Finland;Sweden, Fram Strait, France, France;Spain, French Guiana, French Guiana;France, French Polynesia, French Polynesia;Madagascar, French Polynesia;New Caledonia;Chagos, Gales, Germany, Germany;Indonesia, Ghana, global, Global, Great Britain, Greece, Gulf Kalloni, Gulf of Lion;Eastern Coast of Corsica, English Channel;Southern North Sea, Gulf of Maliakos, Gulf of Mexico, Havelock Island, Hawaii, Holartic region, Honduras, Hungary, Iberian Peninsula, Iberian Peninsula;Morocco, Iceland, India, India;Bhutan, Indian Ocean, Indonesia, Indonesia;Malaysia, Ionian Sea, Ionian Sea;Adriatic Sea, Iran, Ireland, Israel, Italy, Ivory Coast;Central Guyana, Jamaica, Japan, Kenya, Kerguelen Island, Korea, Latin American, Lesser Antilles, Lower Colorado River Basin, Luxembourg, Madagascar, Malaysia, Malpelo, Marocco, Mediterranean Sea, Mexican Pacific, Mexico, Michigan, Mongolia, Mozambique, Namibia, Namibia;Botsuana;South Africa, Namibia;South Africa, Neotropic;Afrotropic, Neotropical Region, Netherlands, New Caledonia;Fiji;Tonga;French Polynesia, New World, New Zealand, New Zealand;France, Nigeria, North America, North Atlantic, North Pacific, North Sea, North-East Atlantic Ocean, Northeast Pacific, Northeast Subarctic Pacific, Northwest Africa, Northwest Atlantic Ocean, Norway, Pacific Ocean, Palau Archipelago, Palearctic, Panama, Papua New Guinea, Paraguay, Paraná, Peru, Peru;French Guiana, Philippines, Poland, Poland;Croatia, Portugal, Portugal;Spain;France, Portugal;Spain;Italy, Puerto Rico;Costa Rica;French Guiana;Brazil, Raudfjorden, Red Sea;Mediterranean Sea, Romania, Russia, Saba Bank, Saudi Arabia, Scotland, Senegal, Serbia, Seychelles, Seychelles;Spain, Singapore, Slovakia, Slovenia, South Africa, South Africa;Spain;Portugal, South America, Southern Africa, Southern Eastern Hemisphere, Southern Ocean, Southern South America, Spain, Spain;France, Spain;Portugal, Spain;South Africa, Sri Lanka, Subarctic Atlantic Ocean, Sweden, Sweden;Netherlands, Switzerland, Taiwan, Tanzania, Tasman Sea, Tasmania, Tenerife, Texas, The Gulf, Tibet, Tropical Ocean Atlantic, Tuamotu Archipelago, Tunisia, Turkey, Tyrrhenian Sea, Uganda, Ukrania, undefined, United Kingdom, United states of america, United States of America, United States of America;Argentina;Antarctica, United States of America;Canada, Uruguay, Venezuela, Venezuela;United States of America, Vietnam, Western Hemisphere, Yellow Sea, Zambia, Zimbabwe</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO DO</t>
         </is>
       </c>
     </row>
@@ -550,6 +585,11 @@
           <t>both, effect, response, undefined</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -567,6 +607,11 @@
           <t>yes, no</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -584,6 +629,11 @@
           <t>0, 1</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -596,6 +646,11 @@
           <t>character</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -613,6 +668,11 @@
           <t>freshwater, marine, terrestrial</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -630,6 +690,11 @@
           <t>local, regional, global</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO DO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -645,6 +710,11 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>defense, habitat, life_history, metabolic, other, trophic</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO DO</t>
         </is>
       </c>
     </row>
